--- a/data/Data.xlsx
+++ b/data/Data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\baran\OneDrive\Desktop\Schule\5.BHIF\MobileComputing\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\baran\OneDrive\Desktop\Schule\5.BHIF\MobileComputing\HanimeWebpack\HanimeWebPack\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6840FFF-1484-4A72-B218-FA05F48460F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB81797A-152E-4856-B41F-36864755215D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{06073D28-0B7D-4F74-A6B3-D075BEC640DB}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>Name</t>
   </si>
@@ -92,9 +92,6 @@
     <t>Erza Scarlet</t>
   </si>
   <si>
-    <t>07.04.0765</t>
-  </si>
-  <si>
     <t>Nami</t>
   </si>
   <si>
@@ -108,6 +105,15 @@
   </si>
   <si>
     <t>https://i.pinimg.com/474x/cd/b7/07/cdb70702203a88a5422af1c3e2f7332c--hinata-hyuga-naruto-shippuden.jpg</t>
+  </si>
+  <si>
+    <t>07.04.1765</t>
+  </si>
+  <si>
+    <t>Hannes Kloibhofer</t>
+  </si>
+  <si>
+    <t>https://www.oefb.at/bewerbe/oefb2/person/images/1278650591628556536_6ed56c974b76111c5c30-1,0-600x315-600x315.png</t>
   </si>
 </sst>
 </file>
@@ -472,7 +478,7 @@
   <dimension ref="A1:I35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -650,7 +656,7 @@
         <v>19</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="G6">
         <v>169</v>
@@ -659,12 +665,12 @@
         <v>49</v>
       </c>
       <c r="I6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B7">
         <v>95</v>
@@ -688,12 +694,12 @@
         <v>50</v>
       </c>
       <c r="I7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8">
         <v>87</v>
@@ -717,11 +723,37 @@
         <v>45</v>
       </c>
       <c r="I8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9">
+        <v>106</v>
+      </c>
+      <c r="C9">
+        <v>50</v>
+      </c>
+      <c r="D9">
+        <v>93</v>
+      </c>
+      <c r="E9">
+        <v>18</v>
+      </c>
+      <c r="F9" s="2">
+        <v>36892</v>
+      </c>
+      <c r="G9">
+        <v>178</v>
+      </c>
+      <c r="H9">
         <v>23</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="F9" s="2"/>
+      <c r="I9" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F10" s="2"/>
